--- a/ASVT_LAB_1/commands.xlsx
+++ b/ASVT_LAB_1/commands.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Таблица команд" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Таблица команд'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Таблица команд'!$A$1:$J$132</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Таблица команд'!$A$1:$J$132</definedName>
   </definedNames>
   <calcPr/>
@@ -318,7 +318,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> V= 0) then PC ← PC + k + 1</t>
@@ -417,7 +416,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> V= 1) then PC ← PC + k + 1</t>
@@ -711,7 +709,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> Rd</t>
@@ -894,7 +891,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="64"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve"> Rr</t>
@@ -1909,7 +1905,6 @@
     </font>
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -2492,7 +2487,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="100" workbookViewId="0">
       <selection activeCell="A128" activeCellId="0" sqref="A128:J128"/>
     </sheetView>
   </sheetViews>
@@ -2500,11 +2495,11 @@
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" width="18.85546875"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="8.28515625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="11.42578125"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="23"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="52.7109375"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="30.42578125"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" width="16"/>
+    <col customWidth="1" min="3" max="3" width="6.140625"/>
+    <col customWidth="1" min="4" max="4" width="8.140625"/>
+    <col customWidth="1" min="5" max="5" width="15.7109375"/>
+    <col customWidth="1" min="6" max="6" width="9.140625"/>
+    <col customWidth="1" min="7" max="7" width="8.7109375"/>
     <col bestFit="1" customWidth="1" min="8" max="8" width="37.140625"/>
     <col bestFit="1" customWidth="1" min="9" max="9" width="10.140625"/>
     <col bestFit="1" customWidth="1" min="10" max="10" width="8.7109375"/>
